--- a/src/main/resources/fid-list.xlsx
+++ b/src/main/resources/fid-list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>LegalEntity</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>BPOPCOBBPEI - Inactive</t>
+  </si>
+  <si>
+    <t>O-179281-237653 - Only extended source</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -550,6 +555,9 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>284626</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
